--- a/src/data/cwe-rules-filtered/video_players_cwe_filtered.xlsx
+++ b/src/data/cwe-rules-filtered/video_players_cwe_filtered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="58">
   <si>
     <t>antecedents</t>
   </si>
@@ -37,34 +37,157 @@
     <t>conviction</t>
   </si>
   <si>
-    <t>frozenset({'CWE-330', 'CWE-312', 'CWE-532', 'CWE-327', 'CWE-89'})</t>
+    <t>antecedent_len</t>
   </si>
   <si>
-    <t>frozenset({'CWE-312', 'CWE-330', 'CWE-327', 'CWE-89'})</t>
+    <t>consequent_len</t>
   </si>
   <si>
-    <t>frozenset({'CWE-312', 'CWE-330', 'CWE-89'})</t>
+    <t>combo_len</t>
   </si>
   <si>
-    <t>frozenset({'CWE-276', 'CWE-200', 'CWE-327'})</t>
+    <t>frozenset({'CWE-532'})</t>
   </si>
   <si>
-    <t>frozenset({'CWE-276', 'CWE-312', 'CWE-532', 'CWE-200', 'CWE-327'})</t>
+    <t>frozenset({'CWE-312', 'CWE-330', 'CWE-276'})</t>
   </si>
   <si>
-    <t>frozenset({'CWE-276', 'CWE-200'})</t>
+    <t>frozenset({'CWE-312', 'CWE-89', 'CWE-327'})</t>
   </si>
   <si>
-    <t>frozenset({'CWE-276', 'CWE-200', 'CWE-532'})</t>
+    <t>frozenset({'CWE-312', 'CWE-327'})</t>
   </si>
   <si>
-    <t>frozenset({'CWE-327', 'CWE-276', 'CWE-200', 'CWE-532'})</t>
+    <t>frozenset({'CWE-312'})</t>
   </si>
   <si>
-    <t>frozenset({'CWE-312', 'CWE-330', 'CWE-532', 'CWE-89'})</t>
+    <t>frozenset({'CWE-89', 'CWE-276', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330', 'CWE-89', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-330', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532', 'CWE-89'})</t>
   </si>
   <si>
     <t>frozenset({'CWE-330', 'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532', 'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-330', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89', 'CWE-330', 'CWE-276', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532', 'CWE-330', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89', 'CWE-330', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89', 'CWE-532', 'CWE-330', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-330', 'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330', 'CWE-89', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-89', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-89', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330', 'CWE-276', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-276', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-276', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-276', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-330', 'CWE-276', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-330', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89', 'CWE-532', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532', 'CWE-330', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532', 'CWE-276', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -422,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,120 +573,5422 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>0.9886363636363636</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>0.6477272727272727</v>
-      </c>
-      <c r="D2">
-        <v>0.8382352941176471</v>
-      </c>
-      <c r="E2">
-        <v>1.117647058823529</v>
-      </c>
-      <c r="F2">
-        <v>0.06818181818181812</v>
-      </c>
-      <c r="G2">
-        <v>1.545454545454546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F4">
+        <v>0.009168388429752095</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>0.6477272727272727</v>
-      </c>
-      <c r="D3">
-        <v>0.8382352941176471</v>
-      </c>
-      <c r="E3">
-        <v>1.117647058823529</v>
-      </c>
-      <c r="F3">
-        <v>0.06818181818181812</v>
-      </c>
-      <c r="G3">
-        <v>1.545454545454546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F5">
+        <v>0.01020144628099173</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>0.6477272727272727</v>
-      </c>
-      <c r="D4">
-        <v>0.8382352941176471</v>
-      </c>
-      <c r="E4">
-        <v>1.117647058823529</v>
-      </c>
-      <c r="F4">
-        <v>0.06818181818181812</v>
-      </c>
-      <c r="G4">
-        <v>1.545454545454546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F7">
+        <v>0.009684917355371914</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F8">
+        <v>0.009168388429752095</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F9">
+        <v>0.01020144628099173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F10">
+        <v>0.009426652892561949</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F12">
+        <v>0.009555785123966931</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F14">
+        <v>0.009555785123966931</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F15">
+        <v>0.009814049586776894</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F17">
+        <v>0.009555785123966931</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F18">
+        <v>0.009555785123966931</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F19">
+        <v>0.009297520661156966</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F20">
+        <v>0.009426652892561949</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.875</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F21">
+        <v>0.009943181818181769</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>0.9318181818181818</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>0.9431818181818182</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F24">
+        <v>0.01071797520661155</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F25">
+        <v>0.009426652892561949</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F26">
+        <v>0.009297520661156966</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>0.9431818181818182</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>0.875</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0.875</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F30">
+        <v>0.009943181818181769</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>0.875</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D33">
+        <v>0.9864864864864864</v>
+      </c>
+      <c r="E33">
+        <v>1.045913383262781</v>
+      </c>
+      <c r="F33">
+        <v>0.0364152892561983</v>
+      </c>
+      <c r="G33">
+        <v>4.20454545454546</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D34">
+        <v>0.9864864864864864</v>
+      </c>
+      <c r="E34">
+        <v>1.045913383262781</v>
+      </c>
+      <c r="F34">
+        <v>0.0364152892561983</v>
+      </c>
+      <c r="G34">
+        <v>4.20454545454546</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D35">
+        <v>0.9864864864864864</v>
+      </c>
+      <c r="E35">
+        <v>1.045913383262781</v>
+      </c>
+      <c r="F35">
+        <v>0.0364152892561983</v>
+      </c>
+      <c r="G35">
+        <v>4.20454545454546</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D36">
+        <v>0.9864864864864864</v>
+      </c>
+      <c r="E36">
+        <v>1.045913383262781</v>
+      </c>
+      <c r="F36">
+        <v>0.0364152892561983</v>
+      </c>
+      <c r="G36">
+        <v>4.20454545454546</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>0.6477272727272727</v>
-      </c>
-      <c r="D5">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D37">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="E37">
+        <v>1.044552845528455</v>
+      </c>
+      <c r="F37">
+        <v>0.03538223140495877</v>
+      </c>
+      <c r="G37">
+        <v>2.556818181818188</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D38">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="E38">
+        <v>1.044552845528455</v>
+      </c>
+      <c r="F38">
+        <v>0.03538223140495877</v>
+      </c>
+      <c r="G38">
+        <v>2.556818181818188</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D39">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="E39">
+        <v>1.044552845528455</v>
+      </c>
+      <c r="F39">
+        <v>0.03538223140495877</v>
+      </c>
+      <c r="G39">
+        <v>2.556818181818188</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D40">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="E40">
+        <v>1.044552845528455</v>
+      </c>
+      <c r="F40">
+        <v>0.03538223140495877</v>
+      </c>
+      <c r="G40">
+        <v>2.556818181818188</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D41">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="E41">
+        <v>1.044552845528455</v>
+      </c>
+      <c r="F41">
+        <v>0.03538223140495877</v>
+      </c>
+      <c r="G41">
+        <v>2.556818181818188</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D42">
+        <v>0.9740259740259741</v>
+      </c>
+      <c r="E42">
+        <v>1.032702237521514</v>
+      </c>
+      <c r="F42">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="G42">
+        <v>2.187499999999997</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D43">
+        <v>0.9740259740259741</v>
+      </c>
+      <c r="E43">
+        <v>1.032702237521514</v>
+      </c>
+      <c r="F43">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="G43">
+        <v>2.187499999999997</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D44">
+        <v>0.9740259740259741</v>
+      </c>
+      <c r="E44">
+        <v>1.032702237521514</v>
+      </c>
+      <c r="F44">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="G44">
+        <v>2.187499999999997</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D45">
+        <v>0.9740259740259741</v>
+      </c>
+      <c r="E45">
+        <v>1.032702237521514</v>
+      </c>
+      <c r="F45">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="G45">
+        <v>2.187499999999997</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D46">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="E46">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F46">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G46">
+        <v>2.10227272727273</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D47">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="E47">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F47">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G47">
+        <v>2.10227272727273</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D48">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="E48">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F48">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G48">
+        <v>2.10227272727273</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D49">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="E49">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F49">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G49">
+        <v>2.10227272727273</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D50">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="E50">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F50">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G50">
+        <v>2.10227272727273</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D51">
+        <v>0.948051948051948</v>
+      </c>
+      <c r="E51">
+        <v>1.056057866184449</v>
+      </c>
+      <c r="F51">
+        <v>0.04403409090909094</v>
+      </c>
+      <c r="G51">
+        <v>1.968750000000004</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D52">
+        <v>0.948051948051948</v>
+      </c>
+      <c r="E52">
+        <v>1.056057866184449</v>
+      </c>
+      <c r="F52">
+        <v>0.04403409090909094</v>
+      </c>
+      <c r="G52">
+        <v>1.968750000000004</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D53">
+        <v>0.948051948051948</v>
+      </c>
+      <c r="E53">
+        <v>1.056057866184449</v>
+      </c>
+      <c r="F53">
+        <v>0.04403409090909094</v>
+      </c>
+      <c r="G53">
+        <v>1.968750000000004</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D54">
+        <v>0.948051948051948</v>
+      </c>
+      <c r="E54">
+        <v>1.056057866184449</v>
+      </c>
+      <c r="F54">
+        <v>0.04403409090909094</v>
+      </c>
+      <c r="G54">
+        <v>1.968750000000004</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D55">
+        <v>0.9610389610389609</v>
+      </c>
+      <c r="E55">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F55">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G55">
+        <v>1.750000000000001</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D56">
+        <v>0.9610389610389609</v>
+      </c>
+      <c r="E56">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F56">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G56">
+        <v>1.750000000000001</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D57">
+        <v>0.9610389610389609</v>
+      </c>
+      <c r="E57">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F57">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G57">
+        <v>1.750000000000001</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D58">
+        <v>0.9610389610389609</v>
+      </c>
+      <c r="E58">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F58">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G58">
+        <v>1.750000000000001</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D59">
+        <v>0.9610389610389609</v>
+      </c>
+      <c r="E59">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F59">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G59">
+        <v>1.750000000000001</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D60">
+        <v>0.9240506329113924</v>
+      </c>
+      <c r="E60">
+        <v>1.056057866184448</v>
+      </c>
+      <c r="F60">
+        <v>0.04403409090909094</v>
+      </c>
+      <c r="G60">
+        <v>1.645833333333334</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D61">
+        <v>0.9240506329113924</v>
+      </c>
+      <c r="E61">
+        <v>1.056057866184448</v>
+      </c>
+      <c r="F61">
+        <v>0.04403409090909094</v>
+      </c>
+      <c r="G61">
+        <v>1.645833333333334</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D62">
+        <v>0.9240506329113924</v>
+      </c>
+      <c r="E62">
+        <v>1.056057866184448</v>
+      </c>
+      <c r="F62">
+        <v>0.04403409090909094</v>
+      </c>
+      <c r="G62">
+        <v>1.645833333333334</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D63">
+        <v>0.9240506329113924</v>
+      </c>
+      <c r="E63">
+        <v>1.056057866184448</v>
+      </c>
+      <c r="F63">
+        <v>0.04403409090909094</v>
+      </c>
+      <c r="G63">
+        <v>1.645833333333334</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D64">
+        <v>0.9634146341463417</v>
+      </c>
+      <c r="E64">
+        <v>1.021451660299736</v>
+      </c>
+      <c r="F64">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G64">
+        <v>1.553030303030305</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D65">
+        <v>0.9634146341463417</v>
+      </c>
+      <c r="E65">
+        <v>1.021451660299736</v>
+      </c>
+      <c r="F65">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G65">
+        <v>1.553030303030305</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D66">
+        <v>0.9634146341463417</v>
+      </c>
+      <c r="E66">
+        <v>1.021451660299736</v>
+      </c>
+      <c r="F66">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G66">
+        <v>1.553030303030305</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D67">
+        <v>0.9634146341463417</v>
+      </c>
+      <c r="E67">
+        <v>1.021451660299736</v>
+      </c>
+      <c r="F67">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G67">
+        <v>1.553030303030305</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D68">
+        <v>0.9634146341463417</v>
+      </c>
+      <c r="E68">
+        <v>1.021451660299736</v>
+      </c>
+      <c r="F68">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G68">
+        <v>1.553030303030305</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69">
         <v>0.8636363636363636</v>
       </c>
-      <c r="E5">
-        <v>1.117647058823529</v>
-      </c>
-      <c r="F5">
-        <v>0.06818181818181812</v>
-      </c>
-      <c r="G5">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="D69">
+        <v>0.9620253164556962</v>
+      </c>
+      <c r="E69">
+        <v>1.019978648772304</v>
+      </c>
+      <c r="F69">
+        <v>0.0169163223140496</v>
+      </c>
+      <c r="G69">
+        <v>1.496212121212121</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D70">
+        <v>0.9620253164556962</v>
+      </c>
+      <c r="E70">
+        <v>1.019978648772304</v>
+      </c>
+      <c r="F70">
+        <v>0.0169163223140496</v>
+      </c>
+      <c r="G70">
+        <v>1.496212121212121</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D71">
+        <v>0.9620253164556962</v>
+      </c>
+      <c r="E71">
+        <v>1.019978648772304</v>
+      </c>
+      <c r="F71">
+        <v>0.0169163223140496</v>
+      </c>
+      <c r="G71">
+        <v>1.496212121212121</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D72">
+        <v>0.9620253164556962</v>
+      </c>
+      <c r="E72">
+        <v>1.019978648772304</v>
+      </c>
+      <c r="F72">
+        <v>0.0169163223140496</v>
+      </c>
+      <c r="G72">
+        <v>1.496212121212121</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D73">
+        <v>0.9518072289156626</v>
+      </c>
+      <c r="E73">
+        <v>1.021451660299735</v>
+      </c>
+      <c r="F73">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G73">
+        <v>1.414772727272727</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D74">
+        <v>0.9518072289156626</v>
+      </c>
+      <c r="E74">
+        <v>1.021451660299735</v>
+      </c>
+      <c r="F74">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G74">
+        <v>1.414772727272727</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D75">
+        <v>0.9518072289156626</v>
+      </c>
+      <c r="E75">
+        <v>1.021451660299735</v>
+      </c>
+      <c r="F75">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G75">
+        <v>1.414772727272727</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D76">
+        <v>0.9518072289156626</v>
+      </c>
+      <c r="E76">
+        <v>1.021451660299735</v>
+      </c>
+      <c r="F76">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G76">
+        <v>1.414772727272727</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D77">
+        <v>0.9518072289156626</v>
+      </c>
+      <c r="E77">
+        <v>1.021451660299735</v>
+      </c>
+      <c r="F77">
+        <v>0.0188533057851239</v>
+      </c>
+      <c r="G77">
+        <v>1.414772727272727</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D78">
+        <v>0.8902439024390245</v>
+      </c>
+      <c r="E78">
+        <v>1.044552845528455</v>
+      </c>
+      <c r="F78">
+        <v>0.03538223140495877</v>
+      </c>
+      <c r="G78">
+        <v>1.345959595959597</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D79">
+        <v>0.8902439024390245</v>
+      </c>
+      <c r="E79">
+        <v>1.044552845528455</v>
+      </c>
+      <c r="F79">
+        <v>0.03538223140495877</v>
+      </c>
+      <c r="G79">
+        <v>1.345959595959597</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D80">
+        <v>0.8902439024390245</v>
+      </c>
+      <c r="E80">
+        <v>1.044552845528455</v>
+      </c>
+      <c r="F80">
+        <v>0.03538223140495877</v>
+      </c>
+      <c r="G80">
+        <v>1.345959595959597</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D81">
+        <v>0.8902439024390245</v>
+      </c>
+      <c r="E81">
+        <v>1.044552845528455</v>
+      </c>
+      <c r="F81">
+        <v>0.03538223140495877</v>
+      </c>
+      <c r="G81">
+        <v>1.345959595959597</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D82">
+        <v>0.8795180722891566</v>
+      </c>
+      <c r="E82">
+        <v>1.045913383262781</v>
+      </c>
+      <c r="F82">
+        <v>0.0364152892561983</v>
+      </c>
+      <c r="G82">
+        <v>1.320454545454545</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D83">
+        <v>0.8795180722891566</v>
+      </c>
+      <c r="E83">
+        <v>1.045913383262781</v>
+      </c>
+      <c r="F83">
+        <v>0.0364152892561983</v>
+      </c>
+      <c r="G83">
+        <v>1.320454545454545</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D84">
+        <v>0.8795180722891566</v>
+      </c>
+      <c r="E84">
+        <v>1.045913383262781</v>
+      </c>
+      <c r="F84">
+        <v>0.0364152892561983</v>
+      </c>
+      <c r="G84">
+        <v>1.320454545454545</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D85">
+        <v>0.8795180722891566</v>
+      </c>
+      <c r="E85">
+        <v>1.045913383262781</v>
+      </c>
+      <c r="F85">
+        <v>0.0364152892561983</v>
+      </c>
+      <c r="G85">
+        <v>1.320454545454545</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D86">
+        <v>0.8795180722891566</v>
+      </c>
+      <c r="E86">
+        <v>1.045913383262781</v>
+      </c>
+      <c r="F86">
+        <v>0.0364152892561983</v>
+      </c>
+      <c r="G86">
+        <v>1.320454545454545</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D87">
+        <v>0.9220779220779219</v>
+      </c>
+      <c r="E87">
+        <v>1.027124773960217</v>
+      </c>
+      <c r="F87">
+        <v>0.02130681818181812</v>
+      </c>
+      <c r="G87">
+        <v>1.3125</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D88">
+        <v>0.9220779220779219</v>
+      </c>
+      <c r="E88">
+        <v>1.027124773960217</v>
+      </c>
+      <c r="F88">
+        <v>0.02130681818181812</v>
+      </c>
+      <c r="G88">
+        <v>1.3125</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D89">
+        <v>0.9220779220779219</v>
+      </c>
+      <c r="E89">
+        <v>1.027124773960217</v>
+      </c>
+      <c r="F89">
+        <v>0.02130681818181812</v>
+      </c>
+      <c r="G89">
+        <v>1.3125</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D90">
+        <v>0.9220779220779219</v>
+      </c>
+      <c r="E90">
+        <v>1.027124773960217</v>
+      </c>
+      <c r="F90">
+        <v>0.02130681818181812</v>
+      </c>
+      <c r="G90">
+        <v>1.3125</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D91">
+        <v>0.9036144578313252</v>
+      </c>
+      <c r="E91">
+        <v>1.032702237521515</v>
+      </c>
+      <c r="F91">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="G91">
+        <v>1.296875</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D92">
+        <v>0.9036144578313252</v>
+      </c>
+      <c r="E92">
+        <v>1.032702237521515</v>
+      </c>
+      <c r="F92">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="G92">
+        <v>1.296875</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D93">
+        <v>0.9036144578313252</v>
+      </c>
+      <c r="E93">
+        <v>1.032702237521515</v>
+      </c>
+      <c r="F93">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="G93">
+        <v>1.296875</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D94">
+        <v>0.9036144578313252</v>
+      </c>
+      <c r="E94">
+        <v>1.032702237521515</v>
+      </c>
+      <c r="F94">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="G94">
+        <v>1.296875</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D95">
+        <v>0.9036144578313252</v>
+      </c>
+      <c r="E95">
+        <v>1.032702237521515</v>
+      </c>
+      <c r="F95">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="G95">
+        <v>1.296875</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D96">
+        <v>0.9473684210526316</v>
+      </c>
+      <c r="E96">
+        <v>1.016688061617459</v>
+      </c>
+      <c r="F96">
+        <v>0.01342975206611574</v>
+      </c>
+      <c r="G96">
+        <v>1.295454545454548</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D97">
+        <v>0.9473684210526316</v>
+      </c>
+      <c r="E97">
+        <v>1.016688061617459</v>
+      </c>
+      <c r="F97">
+        <v>0.01342975206611574</v>
+      </c>
+      <c r="G97">
+        <v>1.295454545454548</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D98">
+        <v>0.9473684210526316</v>
+      </c>
+      <c r="E98">
+        <v>1.016688061617459</v>
+      </c>
+      <c r="F98">
+        <v>0.01342975206611574</v>
+      </c>
+      <c r="G98">
+        <v>1.295454545454548</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D99">
+        <v>0.9473684210526316</v>
+      </c>
+      <c r="E99">
+        <v>1.016688061617459</v>
+      </c>
+      <c r="F99">
+        <v>0.01342975206611574</v>
+      </c>
+      <c r="G99">
+        <v>1.295454545454548</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D100">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E100">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F100">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G100">
+        <v>1.281250000000002</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D101">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E101">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F101">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G101">
+        <v>1.281250000000002</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D102">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E102">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F102">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G102">
+        <v>1.281250000000002</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D103">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E103">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F103">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G103">
+        <v>1.281250000000002</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D104">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E104">
+        <v>1.031358885017422</v>
+      </c>
+      <c r="F104">
+        <v>0.02556818181818188</v>
+      </c>
+      <c r="G104">
+        <v>1.281250000000002</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>0.9431818181818182</v>
+      </c>
+      <c r="D105">
+        <v>0.9540229885057472</v>
+      </c>
+      <c r="E105">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F105">
+        <v>0.01071797520661155</v>
+      </c>
+      <c r="G105">
+        <v>1.235795454545455</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D106">
+        <v>0.8987341772151899</v>
+      </c>
+      <c r="E106">
+        <v>1.027124773960217</v>
+      </c>
+      <c r="F106">
+        <v>0.02130681818181812</v>
+      </c>
+      <c r="G106">
+        <v>1.234375</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D107">
+        <v>0.8987341772151899</v>
+      </c>
+      <c r="E107">
+        <v>1.027124773960217</v>
+      </c>
+      <c r="F107">
+        <v>0.02130681818181812</v>
+      </c>
+      <c r="G107">
+        <v>1.234375</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D108">
+        <v>0.8987341772151899</v>
+      </c>
+      <c r="E108">
+        <v>1.027124773960217</v>
+      </c>
+      <c r="F108">
+        <v>0.02130681818181812</v>
+      </c>
+      <c r="G108">
+        <v>1.234375</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D109">
+        <v>0.8987341772151899</v>
+      </c>
+      <c r="E109">
+        <v>1.027124773960217</v>
+      </c>
+      <c r="F109">
+        <v>0.02130681818181812</v>
+      </c>
+      <c r="G109">
+        <v>1.234375</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D110">
+        <v>0.8987341772151899</v>
+      </c>
+      <c r="E110">
+        <v>1.027124773960217</v>
+      </c>
+      <c r="F110">
+        <v>0.02130681818181812</v>
+      </c>
+      <c r="G110">
+        <v>1.234375</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D111">
+        <v>0.9156626506024096</v>
+      </c>
+      <c r="E111">
+        <v>1.019978648772304</v>
+      </c>
+      <c r="F111">
+        <v>0.0169163223140496</v>
+      </c>
+      <c r="G111">
+        <v>1.212662337662337</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D112">
+        <v>0.9156626506024096</v>
+      </c>
+      <c r="E112">
+        <v>1.019978648772304</v>
+      </c>
+      <c r="F112">
+        <v>0.0169163223140496</v>
+      </c>
+      <c r="G112">
+        <v>1.212662337662337</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D113">
+        <v>0.9156626506024096</v>
+      </c>
+      <c r="E113">
+        <v>1.019978648772304</v>
+      </c>
+      <c r="F113">
+        <v>0.0169163223140496</v>
+      </c>
+      <c r="G113">
+        <v>1.212662337662337</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D114">
+        <v>0.9156626506024096</v>
+      </c>
+      <c r="E114">
+        <v>1.019978648772304</v>
+      </c>
+      <c r="F114">
+        <v>0.0169163223140496</v>
+      </c>
+      <c r="G114">
+        <v>1.212662337662337</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D115">
+        <v>0.8674698795180723</v>
+      </c>
+      <c r="E115">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F115">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G115">
+        <v>1.200413223140496</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D116">
+        <v>0.8674698795180723</v>
+      </c>
+      <c r="E116">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F116">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G116">
+        <v>1.200413223140496</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D117">
+        <v>0.8674698795180723</v>
+      </c>
+      <c r="E117">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F117">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G117">
+        <v>1.200413223140496</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D118">
+        <v>0.8674698795180723</v>
+      </c>
+      <c r="E118">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F118">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G118">
+        <v>1.200413223140496</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D119">
+        <v>0.8674698795180723</v>
+      </c>
+      <c r="E119">
+        <v>1.03158580267014</v>
+      </c>
+      <c r="F119">
+        <v>0.02505165289256195</v>
+      </c>
+      <c r="G119">
+        <v>1.200413223140496</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+      <c r="J119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120">
+        <v>0.9318181818181818</v>
+      </c>
+      <c r="D120">
+        <v>0.942528735632184</v>
+      </c>
+      <c r="E120">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F120">
+        <v>0.01058884297520657</v>
+      </c>
+      <c r="G120">
+        <v>1.186363636363637</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D121">
+        <v>0.9113924050632912</v>
+      </c>
+      <c r="E121">
+        <v>1.015221919564172</v>
+      </c>
+      <c r="F121">
+        <v>0.01226756198347112</v>
+      </c>
+      <c r="G121">
+        <v>1.154220779220781</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D122">
+        <v>0.9113924050632912</v>
+      </c>
+      <c r="E122">
+        <v>1.015221919564172</v>
+      </c>
+      <c r="F122">
+        <v>0.01226756198347112</v>
+      </c>
+      <c r="G122">
+        <v>1.154220779220781</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D123">
+        <v>0.9113924050632912</v>
+      </c>
+      <c r="E123">
+        <v>1.015221919564172</v>
+      </c>
+      <c r="F123">
+        <v>0.01226756198347112</v>
+      </c>
+      <c r="G123">
+        <v>1.154220779220781</v>
+      </c>
+      <c r="H123">
+        <v>3</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D124">
+        <v>0.9113924050632912</v>
+      </c>
+      <c r="E124">
+        <v>1.015221919564172</v>
+      </c>
+      <c r="F124">
+        <v>0.01226756198347112</v>
+      </c>
+      <c r="G124">
+        <v>1.154220779220781</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D125">
+        <v>0.9113924050632912</v>
+      </c>
+      <c r="E125">
+        <v>1.015221919564172</v>
+      </c>
+      <c r="F125">
+        <v>0.01226756198347112</v>
+      </c>
+      <c r="G125">
+        <v>1.154220779220781</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D126">
+        <v>0.9113924050632912</v>
+      </c>
+      <c r="E126">
+        <v>1.015221919564172</v>
+      </c>
+      <c r="F126">
+        <v>0.01226756198347112</v>
+      </c>
+      <c r="G126">
+        <v>1.154220779220781</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D127">
+        <v>0.9113924050632912</v>
+      </c>
+      <c r="E127">
+        <v>1.015221919564172</v>
+      </c>
+      <c r="F127">
+        <v>0.01226756198347112</v>
+      </c>
+      <c r="G127">
+        <v>1.154220779220781</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D128">
+        <v>0.9113924050632912</v>
+      </c>
+      <c r="E128">
+        <v>1.015221919564172</v>
+      </c>
+      <c r="F128">
+        <v>0.01226756198347112</v>
+      </c>
+      <c r="G128">
+        <v>1.154220779220781</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D129">
+        <v>0.9113924050632912</v>
+      </c>
+      <c r="E129">
+        <v>1.015221919564172</v>
+      </c>
+      <c r="F129">
+        <v>0.01226756198347112</v>
+      </c>
+      <c r="G129">
+        <v>1.154220779220781</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D130">
+        <v>0.878048780487805</v>
+      </c>
+      <c r="E130">
+        <v>1.016688061617459</v>
+      </c>
+      <c r="F130">
+        <v>0.01342975206611574</v>
+      </c>
+      <c r="G130">
+        <v>1.118181818181819</v>
+      </c>
+      <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D131">
+        <v>0.878048780487805</v>
+      </c>
+      <c r="E131">
+        <v>1.016688061617459</v>
+      </c>
+      <c r="F131">
+        <v>0.01342975206611574</v>
+      </c>
+      <c r="G131">
+        <v>1.118181818181819</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>4</v>
+      </c>
+      <c r="J131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D132">
+        <v>0.878048780487805</v>
+      </c>
+      <c r="E132">
+        <v>1.016688061617459</v>
+      </c>
+      <c r="F132">
+        <v>0.01342975206611574</v>
+      </c>
+      <c r="G132">
+        <v>1.118181818181819</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" t="s">
+        <v>46</v>
+      </c>
+      <c r="C133">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D133">
+        <v>0.878048780487805</v>
+      </c>
+      <c r="E133">
+        <v>1.016688061617459</v>
+      </c>
+      <c r="F133">
+        <v>0.01342975206611574</v>
+      </c>
+      <c r="G133">
+        <v>1.118181818181819</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D134">
+        <v>0.878048780487805</v>
+      </c>
+      <c r="E134">
+        <v>1.016688061617459</v>
+      </c>
+      <c r="F134">
+        <v>0.01342975206611574</v>
+      </c>
+      <c r="G134">
+        <v>1.118181818181819</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D135">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="E135">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F135">
+        <v>0.01020144628099173</v>
+      </c>
+      <c r="G135">
+        <v>1.112215909090909</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D136">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="E136">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F136">
+        <v>0.01020144628099173</v>
+      </c>
+      <c r="G136">
+        <v>1.112215909090909</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D137">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="E137">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F137">
+        <v>0.01020144628099173</v>
+      </c>
+      <c r="G137">
+        <v>1.112215909090909</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138">
+        <v>0.875</v>
+      </c>
+      <c r="D138">
+        <v>0.8850574712643678</v>
+      </c>
+      <c r="E138">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F138">
+        <v>0.009943181818181769</v>
+      </c>
+      <c r="G138">
+        <v>1.0875</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D139">
+        <v>0.8735632183908046</v>
+      </c>
+      <c r="E139">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F139">
+        <v>0.009814049586776894</v>
+      </c>
+      <c r="G139">
+        <v>1.078512396694215</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D140">
+        <v>0.8735632183908046</v>
+      </c>
+      <c r="E140">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F140">
+        <v>0.009814049586776894</v>
+      </c>
+      <c r="G140">
+        <v>1.078512396694215</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D141">
+        <v>0.9367088607594938</v>
+      </c>
+      <c r="E141">
+        <v>1.005248533497994</v>
+      </c>
+      <c r="F141">
+        <v>0.00439049586776874</v>
+      </c>
+      <c r="G141">
+        <v>1.07727272727273</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D142">
+        <v>0.9367088607594938</v>
+      </c>
+      <c r="E142">
+        <v>1.005248533497994</v>
+      </c>
+      <c r="F142">
+        <v>0.00439049586776874</v>
+      </c>
+      <c r="G142">
+        <v>1.07727272727273</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D143">
+        <v>0.9367088607594938</v>
+      </c>
+      <c r="E143">
+        <v>1.005248533497994</v>
+      </c>
+      <c r="F143">
+        <v>0.00439049586776874</v>
+      </c>
+      <c r="G143">
+        <v>1.07727272727273</v>
+      </c>
+      <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>50</v>
+      </c>
+      <c r="B144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D144">
+        <v>0.9367088607594938</v>
+      </c>
+      <c r="E144">
+        <v>1.005248533497994</v>
+      </c>
+      <c r="F144">
+        <v>0.00439049586776874</v>
+      </c>
+      <c r="G144">
+        <v>1.07727272727273</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D145">
+        <v>0.8620689655172414</v>
+      </c>
+      <c r="E145">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F145">
+        <v>0.009684917355371914</v>
+      </c>
+      <c r="G145">
+        <v>1.071022727272728</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D146">
+        <v>0.8620689655172414</v>
+      </c>
+      <c r="E146">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F146">
+        <v>0.009684917355371914</v>
+      </c>
+      <c r="G146">
+        <v>1.071022727272728</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D147">
+        <v>0.8505747126436782</v>
+      </c>
+      <c r="E147">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F147">
+        <v>0.009555785123966931</v>
+      </c>
+      <c r="G147">
+        <v>1.064685314685315</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D148">
+        <v>0.8505747126436782</v>
+      </c>
+      <c r="E148">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F148">
+        <v>0.009555785123966931</v>
+      </c>
+      <c r="G148">
+        <v>1.064685314685315</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D149">
+        <v>0.8505747126436782</v>
+      </c>
+      <c r="E149">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F149">
+        <v>0.009555785123966931</v>
+      </c>
+      <c r="G149">
+        <v>1.064685314685315</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D150">
+        <v>0.839080459770115</v>
+      </c>
+      <c r="E150">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F150">
+        <v>0.009426652892561949</v>
+      </c>
+      <c r="G150">
+        <v>1.059253246753247</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>48</v>
+      </c>
+      <c r="B151" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C151">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D151">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="E151">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F151">
+        <v>0.009297520661156966</v>
+      </c>
+      <c r="G151">
+        <v>1.054545454545454</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>3</v>
+      </c>
+      <c r="J151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D152">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="E152">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F152">
+        <v>0.009297520661156966</v>
+      </c>
+      <c r="G152">
+        <v>1.054545454545454</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D153">
+        <v>0.8160919540229884</v>
+      </c>
+      <c r="E153">
+        <v>1.011494252873563</v>
+      </c>
+      <c r="F153">
+        <v>0.009168388429752095</v>
+      </c>
+      <c r="G153">
+        <v>1.050426136363636</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>3</v>
+      </c>
+      <c r="J153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>41</v>
+      </c>
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D154">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E154">
+        <v>1.005248533497994</v>
+      </c>
+      <c r="F154">
+        <v>0.00439049586776874</v>
+      </c>
+      <c r="G154">
+        <v>1.048295454545456</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D155">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E155">
+        <v>1.005248533497994</v>
+      </c>
+      <c r="F155">
+        <v>0.00439049586776874</v>
+      </c>
+      <c r="G155">
+        <v>1.048295454545456</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D156">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E156">
+        <v>1.005248533497994</v>
+      </c>
+      <c r="F156">
+        <v>0.00439049586776874</v>
+      </c>
+      <c r="G156">
+        <v>1.048295454545456</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>41</v>
+      </c>
+      <c r="B157" t="s">
+        <v>49</v>
+      </c>
+      <c r="C157">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D157">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E157">
+        <v>1.005248533497994</v>
+      </c>
+      <c r="F157">
+        <v>0.00439049586776874</v>
+      </c>
+      <c r="G157">
+        <v>1.048295454545456</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>3</v>
+      </c>
+      <c r="J157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>42</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D158">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="E158">
+        <v>1.005248533497994</v>
+      </c>
+      <c r="F158">
+        <v>0.00439049586776874</v>
+      </c>
+      <c r="G158">
+        <v>1.048295454545456</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>53</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D159">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>53</v>
+      </c>
+      <c r="B160" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160">
+        <v>0.9318181818181818</v>
+      </c>
+      <c r="D160">
+        <v>0.9318181818181818</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D161">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>53</v>
+      </c>
+      <c r="B162" t="s">
+        <v>46</v>
+      </c>
+      <c r="C162">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D162">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>53</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="D163">
+        <v>0.8977272727272727</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>53</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D164">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>0.6477272727272727</v>
-      </c>
-      <c r="D6">
-        <v>0.9344262295081966</v>
-      </c>
-      <c r="E6">
-        <v>1.111209570225963</v>
-      </c>
-      <c r="F6">
-        <v>0.06482438016528913</v>
-      </c>
-      <c r="G6">
-        <v>2.426136363636361</v>
+      <c r="C165">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="D165">
+        <v>0.8068181818181818</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D166">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>3</v>
+      </c>
+      <c r="J166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="D167">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="J167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>53</v>
+      </c>
+      <c r="B168" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168">
+        <v>0.875</v>
+      </c>
+      <c r="D168">
+        <v>0.875</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>53</v>
+      </c>
+      <c r="B169" t="s">
+        <v>37</v>
+      </c>
+      <c r="C169">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="D169">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>53</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="D170">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
